--- a/年度工作汇总/2014/清华大学2014年度工作考核表_工作量统计.xlsx
+++ b/年度工作汇总/2014/清华大学2014年度工作考核表_工作量统计.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Woody\Git Projects\workzone\年度工作汇总\2014\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>片场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虚拟仿真实验中心-制作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,24 +245,99 @@
   <si>
     <t>自行车工坊建设</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片长</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <r>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年度工作考核</t>
+    </r>
+  </si>
+  <si>
+    <t>团队数</t>
+  </si>
+  <si>
+    <t>天数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,16 +347,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,25 +368,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="14">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,7 +502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,7 +537,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,7 +714,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,26 +722,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G56"/>
+  <dimension ref="B1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1">
+        <f>G2+G10+G18+G25+G30+G41+G48+G54</f>
+        <v>1573.5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
@@ -632,7 +765,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -652,7 +785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -667,7 +800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -682,7 +815,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -690,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -705,7 +838,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -720,13 +853,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>17</v>
       </c>
@@ -735,7 +868,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -755,7 +888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -770,7 +903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -785,7 +918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -800,7 +933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -815,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -830,8 +963,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
@@ -839,18 +972,18 @@
       </c>
       <c r="G18">
         <f>SUM(G20:G22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17">
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -862,45 +995,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <f>C20*F20</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4">
+        <f>D21*F21</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <f>D22*F22</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>42</v>
       </c>
       <c r="D23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <f>D23*F23</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" t="s">
         <v>17</v>
       </c>
@@ -909,7 +1070,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" t="s">
         <v>9</v>
       </c>
@@ -929,7 +1090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -944,7 +1105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -959,22 +1120,22 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="2:7">
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30">
         <f>SUM(G34:G35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="17">
       <c r="B31" t="s">
         <v>9</v>
       </c>
@@ -984,8 +1145,8 @@
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" t="s">
-        <v>48</v>
+      <c r="E31" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -994,53 +1155,133 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7">
       <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f>D32*F32</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f>E33*F33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C34">
+        <v>3500</v>
+      </c>
+      <c r="F34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G34">
+        <f>C34*F34</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="E35">
+        <v>10.5</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <f>E35*F35</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f>D36*F36</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f>E37*F37</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f>D38*F38</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>E39*F39</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" t="s">
         <v>17</v>
       </c>
@@ -1049,7 +1290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7">
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7">
       <c r="B43" t="s">
         <v>43</v>
       </c>
@@ -1084,7 +1325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7">
       <c r="B44" t="s">
         <v>40</v>
       </c>
@@ -1099,7 +1340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7">
       <c r="B45" t="s">
         <v>41</v>
       </c>
@@ -1113,9 +1354,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1127,13 +1368,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="2:7">
+      <c r="B48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1383,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:7">
       <c r="B50" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:7">
       <c r="B51" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:7">
       <c r="B52" t="s">
         <v>28</v>
       </c>
@@ -1174,13 +1415,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="2:7">
+      <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
       <c r="F54" t="s">
         <v>17</v>
       </c>
@@ -1189,7 +1430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7">
       <c r="B55" t="s">
         <v>29</v>
       </c>
@@ -1209,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:7">
       <c r="B56" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1469,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B54:E54"/>
@@ -1239,5 +1481,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/年度工作汇总/2014/清华大学2014年度工作考核表_工作量统计.xlsx
+++ b/年度工作汇总/2014/清华大学2014年度工作考核表_工作量统计.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>天数</t>
+  </si>
+  <si>
+    <t>日期：2015年1月7日</t>
+  </si>
+  <si>
+    <t>王德宇</t>
   </si>
 </sst>
 </file>
@@ -410,23 +416,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G56"/>
+  <dimension ref="B1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -742,170 +754,166 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G1">
-        <f>G2+G10+G18+G25+G30+G41+G48+G54</f>
+        <f>G3+G11+G19+G26+G31+G42+G49+G55</f>
         <v>1573.5</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <f>SUM(G4:G8)</f>
+      <c r="G3">
+        <f>SUM(G5:G9)</f>
         <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <f>C4*F4</f>
-        <v>50</v>
+      <c r="G4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <f>C5*F5</f>
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <f>C6*F6</f>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <f>C7*F7</f>
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <f>C8*F8</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f>C9*F9</f>
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G10">
-        <f>SUM(G12:G16)</f>
+      <c r="G11">
+        <f>SUM(G13:G17)</f>
         <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="G12">
-        <f>C12*F12</f>
-        <v>40</v>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -914,13 +922,13 @@
         <v>40</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G16" si="0">C13*F13</f>
+        <f>C13*F13</f>
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -929,13 +937,13 @@
         <v>40</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G14:G17" si="0">C14*F14</f>
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -950,7 +958,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -963,521 +971,536 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1" t="s">
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="G18">
-        <f>SUM(G20:G22)</f>
+      <c r="G19">
+        <f>SUM(G21:G23)</f>
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="17">
-      <c r="B19" t="s">
+    <row r="20" spans="2:7" ht="17">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>32</v>
-      </c>
-      <c r="G20">
-        <f>C20*F20</f>
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21" s="4">
-        <f>D21*F21</f>
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <f>C21*F21</f>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>8</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <f>D22*F22</f>
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>8</v>
       </c>
       <c r="G23">
         <f>D23*F23</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <f>D24*F24</f>
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="2:7">
+      <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c r="G25">
-        <f>SUM(G27:G28)</f>
+      <c r="G26">
+        <f>SUM(G28:G29)</f>
         <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <f>D27*F27</f>
-        <v>80</v>
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>20</v>
       </c>
       <c r="G28">
         <f>D28*F28</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <f>D29*F29</f>
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="2:7">
+      <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c r="G30">
-        <f>SUM(G34:G35)</f>
+      <c r="G31">
+        <f>SUM(G35:G36)</f>
         <v>73.5</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="17">
-      <c r="B31" t="s">
+    <row r="32" spans="2:7" ht="17">
+      <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>5</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <f>D32*F32</f>
-        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33">
-        <f>E33*F33</f>
-        <v>4</v>
+        <f>D33*F33</f>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34">
-        <v>3500</v>
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1.4999999999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <f>C34*F34</f>
-        <v>52.5</v>
+        <f>E34*F34</f>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35">
-        <v>10.5</v>
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>3500</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G35">
-        <f>E35*F35</f>
-        <v>21</v>
+        <f>C35*F35</f>
+        <v>52.5</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>10.5</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36">
-        <f>D36*F36</f>
-        <v>32</v>
+        <f>E36*F36</f>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37">
-        <f>E37*F37</f>
-        <v>8</v>
+        <f>D37*F37</f>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38">
-        <f>D38*F38</f>
-        <v>32</v>
+        <f>E38*F38</f>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39">
-        <f>E39*F39</f>
+        <f>D39*F39</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f>E40*F40</f>
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="2:7">
+      <c r="B42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" t="s">
         <v>17</v>
       </c>
-      <c r="G41">
-        <f>SUM(G43:G45)</f>
+      <c r="G42">
+        <f>SUM(G44:G46)</f>
         <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>8</v>
-      </c>
-      <c r="F43">
-        <v>8</v>
-      </c>
-      <c r="G43">
-        <f>C43*F43</f>
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>8</v>
       </c>
       <c r="G44">
         <f>C44*F44</f>
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <v>8</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <f>C45*F45</f>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <v>8</v>
       </c>
       <c r="G46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="2:7">
+      <c r="B49" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" t="s">
         <v>17</v>
       </c>
-      <c r="G48">
-        <f>SUM(G50:G52)</f>
+      <c r="G49">
+        <f>SUM(G51:G53)</f>
         <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50">
-        <v>150</v>
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" t="s">
         <v>28</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="2:7">
+      <c r="B55" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" t="s">
         <v>17</v>
       </c>
-      <c r="G54">
-        <f>SUM(G56:G58)</f>
+      <c r="G55">
+        <f>SUM(G57:G59)</f>
         <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" t="s">
         <v>21</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>40</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>12</v>
       </c>
-      <c r="G56">
-        <f>C56*F56</f>
+      <c r="G57">
+        <f>C57*F57</f>
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
